--- a/Data handler/full_model/CO2.xlsx
+++ b/Data handler/full_model/CO2.xlsx
@@ -1,158 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gorandurakovic/PhD work/EMPIRE-Hydrogen/Data handler/full_model/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639408FF-A6AD-B942-BAF2-10ADCA2BF8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-24800" yWindow="-5160" windowWidth="33600" windowHeight="19360" activeTab="6" xr2:uid="{8E779234-E1E1-594B-828C-ABBECF322D3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="CO2SequestrationNodes" sheetId="1" r:id="rId1"/>
-    <sheet name="StorageSiteCapitalCost" sheetId="2" r:id="rId2"/>
-    <sheet name="StorageSiteFixedOMCost" sheetId="3" r:id="rId3"/>
-    <sheet name="PipelineCapitalCost" sheetId="4" r:id="rId4"/>
-    <sheet name="PipelineFixedOM" sheetId="5" r:id="rId5"/>
-    <sheet name="PipelineElectricityUsage" sheetId="6" r:id="rId6"/>
-    <sheet name="MaxSequestrationCapacity" sheetId="7" r:id="rId7"/>
+    <sheet name="CO2SequestrationNodes" sheetId="18" r:id="rId1"/>
+    <sheet name="StorageSiteCapitalCost" sheetId="13" r:id="rId2"/>
+    <sheet name="StorageSiteFixedOMCost" sheetId="14" r:id="rId3"/>
+    <sheet name="PipelineCapitalCost" sheetId="1" r:id="rId4"/>
+    <sheet name="PipelineFixedOM" sheetId="2" r:id="rId5"/>
+    <sheet name="PipelineElectricityUsage" sheetId="4" r:id="rId6"/>
+    <sheet name="MaxSequestrationCapacity" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
+    <t xml:space="preserve">Source: "The Costs of CO2 Transport: Post-demonstration CCS in the EU" (2011), Zero Emissions Platform </t>
+  </si>
+  <si>
+    <t>Source: Assumed 5% of CAPEX</t>
+  </si>
+  <si>
+    <t>Description: O&amp;M cost hydrogen pipelines (€/(km)) (default 999999)</t>
+  </si>
+  <si>
+    <t>Description: Compressor power usage (MWh / ton CO2)</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Source: "Study on the Import of Liquid Renewable Energy: Technology Cost Assessment" (2020), DNV GL, cost for depleted field on the NCS used</t>
+  </si>
+  <si>
+    <t>Site_Development_Cost_euro/(t/hr)</t>
+  </si>
+  <si>
+    <t>Field_Fixed_OM_Cost_euro/(t/hr)</t>
+  </si>
+  <si>
+    <t>Description: Fixed annual O&amp;M cost for CCS facility (euro / (t/hr)), default = 999999999</t>
+  </si>
+  <si>
+    <t>Description: Cost of developing CCS facility (euro / (t/hr)), default = 999999999</t>
+  </si>
+  <si>
     <t>CO2SequestrationNodes</t>
   </si>
   <si>
+    <t>Great Brit.</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>NO2</t>
   </si>
   <si>
     <t>NO5</t>
   </si>
   <si>
+    <t>Pipeline capacity (tons/hr)</t>
+  </si>
+  <si>
+    <t>Description: Capital cost of CO2 pipelines (euro/km / (tons/hr))</t>
+  </si>
+  <si>
+    <t>Power usage [MWh/ton]</t>
+  </si>
+  <si>
+    <t>O&amp;M Cost (euro/km)</t>
+  </si>
+  <si>
+    <t>Capital cost (euro/(km * tons/hr)</t>
+  </si>
+  <si>
+    <t>Max sequestration capacity [tons]</t>
+  </si>
+  <si>
+    <t>Description: Maximum sequestration capacity per node, tons (default: 0)</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Source: Table 2 in An integrated analysis of carbon capture and storage strategies for power and industry in Europe by Turgut et al. (2021)</t>
+  </si>
+  <si>
+    <t>Utsira &amp; Skade</t>
+  </si>
+  <si>
+    <t>Bryne/Sandnes</t>
+  </si>
+  <si>
+    <t>Sognefjord</t>
+  </si>
+  <si>
+    <t>Gassum</t>
+  </si>
+  <si>
+    <t>Bryne/Sandnes Farsund</t>
+  </si>
+  <si>
+    <t>Johansen and Cook</t>
+  </si>
+  <si>
+    <t>Fiskebank</t>
+  </si>
+  <si>
+    <t>Hugin East</t>
+  </si>
+  <si>
+    <t>Stord Basin</t>
+  </si>
+  <si>
+    <t>Statfjord</t>
+  </si>
+  <si>
+    <t>Source: Norwegian Petroleum Directorate - CO2 storage atlast: The Norwegian North Sea</t>
+  </si>
+  <si>
     <t>NO3</t>
   </si>
   <si>
-    <t>Great Brit.</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Source: "Study on the Import of Liquid Renewable Energy: Technology Cost Assessment" (2020), DNV GL, cost for depleted field on the NCS used</t>
-  </si>
-  <si>
-    <t>Description: Cost of developing CCS facility (euro / (t/hr)), default = 999999999</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>Site_Development_Cost_euro/(t/hr)</t>
-  </si>
-  <si>
-    <t>Description: Fixed annual O&amp;M cost for CCS facility (euro / (t/hr)), default = 999999999</t>
-  </si>
-  <si>
-    <t>Field_Fixed_OM_Cost_euro/(t/hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: "The Costs of CO2 Transport: Post-demonstration CCS in the EU" (2011), Zero Emissions Platform </t>
-  </si>
-  <si>
-    <t>Description: Capital cost of CO2 pipelines (euro/km / (tons/hr))</t>
-  </si>
-  <si>
-    <t>Capital cost (euro/(km * tons/hr)</t>
-  </si>
-  <si>
-    <t>Pipeline capacity (tons/hr)</t>
-  </si>
-  <si>
-    <t>Source: Assumed 5% of CAPEX</t>
-  </si>
-  <si>
-    <t>Description: O&amp;M cost hydrogen pipelines (€/(km)) (default 999999)</t>
-  </si>
-  <si>
-    <t>O&amp;M Cost (euro/km)</t>
-  </si>
-  <si>
-    <t>Description: Compressor power usage (MWh / ton CO2)</t>
-  </si>
-  <si>
-    <t>Power usage [MWh/ton]</t>
-  </si>
-  <si>
-    <t>Source: Table 2 in An integrated analysis of carbon capture and storage strategies for power and industry in Europe by Turgut et al. (2021)</t>
-  </si>
-  <si>
-    <t>Description: Maximum sequestration capacity per node, tons (default: 0)</t>
-  </si>
-  <si>
-    <t>Max sequestration capacity [tons]</t>
-  </si>
-  <si>
     <t>Source: Accessed 24.05.2023 https://www.npd.no/en/facts/publications/co2-atlases/co2-atlas-for-the-norwegian-continental-shelf/5-the-norwegian-sea/5.2-storage-options-in-the-norwegian-sea/5.2.2-summary/</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Utsira &amp; Skade</t>
-  </si>
-  <si>
-    <t>Bryne/Sandnes</t>
-  </si>
-  <si>
-    <t>Sognefjord</t>
-  </si>
-  <si>
-    <t>Statfjord</t>
-  </si>
-  <si>
-    <t>Gassum</t>
-  </si>
-  <si>
-    <t>Bryne/Sandnes Farsund</t>
-  </si>
-  <si>
-    <t>Johansen and Cook</t>
-  </si>
-  <si>
-    <t>Fiskebank</t>
-  </si>
-  <si>
-    <t>Hugin East</t>
-  </si>
-  <si>
-    <t>Stord Basin</t>
+    <t>Zone</t>
   </si>
   <si>
     <t>Depleted fields</t>
   </si>
   <si>
-    <t>Zone</t>
-  </si>
-  <si>
     <t>Capacity (Gt)</t>
-  </si>
-  <si>
-    <t>Source: Norwegian Petroleum Directorate - CO2 storage atlast: The Norwegian North Sea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,14 +207,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -200,44 +238,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -264,14 +302,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -298,6 +354,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -309,210 +383,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A746EAE-84E5-B74B-8086-982B106A0ADF}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -521,76 +573,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E67CB-058D-7B45-9528-8227CDA41647}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>652087</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5">
+        <f>$B$4</f>
         <v>652087</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B6">
+        <f>$B$4</f>
         <v>652087</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7">
+        <f t="shared" ref="B7:B9" si="0">$B$4</f>
         <v>652087</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>652087</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>652087</v>
       </c>
     </row>
@@ -600,74 +659,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E851EC-4AFD-6B43-A7D2-D9435FDC0972}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>8543</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>8543</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B6">
         <v>8543</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>8543</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>5</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>8543</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>6</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8543</v>
@@ -679,37 +740,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC43D34A-2FBA-044A-9EBD-BFC7ADBECC7F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f>(700+200+210)*1000/E4</f>
         <v>486.18</v>
       </c>
       <c r="E4">
-        <v>2283.10502283105</v>
+        <v>2283.1050228310501</v>
       </c>
     </row>
   </sheetData>
@@ -718,31 +785,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C2240F-EBFF-9C49-AA2D-504769705FB1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>24.309</v>
+        <f>0.05*PipelineCapitalCost!A4</f>
+        <v>24.309000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -751,31 +821,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F140A70-DD6B-4B40-A86F-AD1F38CBEF04}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.01711</v>
+        <v>1.711E-2</v>
       </c>
     </row>
   </sheetData>
@@ -784,211 +856,226 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E605C1EE-B60E-6542-BB12-BAF2A0F400CE}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4">
+        <f ca="1">10^9*SUMIF($H$4:$H$15,A4,I4:I13)</f>
         <v>29500000000</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4">
+        <f>14.8+1</f>
         <v>15.8</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5">
+        <f ca="1">10^9*SUMIF($H$4:$H$15,A5,I5:I14)</f>
         <v>30700000000</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>13.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B6">
+        <f>0.17*10^9</f>
         <v>170000000</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7">
+        <f>78*10^9</f>
         <v>78000000000</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8">
+        <f>4*10^9</f>
         <v>4000000000</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9">
+        <f>0.3*10^9</f>
         <v>300000000</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I10">
+        <f>1.7+0.1</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I14">
+        <f>(14+6+4+3)/2</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I15">
+        <f>(14+6+4+3)/2</f>
         <v>13.5</v>
       </c>
     </row>
@@ -998,8 +1085,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -1019,7 +1106,6 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1072,11 +1158,6 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1230,9 +1311,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49ADA2A6-D239-4935-936A-951D3091C8F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB52F201-14DE-47C4-AF73-645CDE31C6FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311A4331-F6B5-4AFB-B6CD-CD7B7C4D4F41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4744EF51-B80B-480A-9E08-FF77EAE006BE}"/>
 </file>
--- a/Data handler/full_model/CO2.xlsx
+++ b/Data handler/full_model/CO2.xlsx
@@ -1085,8 +1085,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -1106,6 +1106,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1158,6 +1159,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1311,7 +1317,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB52F201-14DE-47C4-AF73-645CDE31C6FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B92CBD-A2D1-4465-9DB3-4F7989D4BB5E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
